--- a/data/Preparation/raw/Muva +.xlsx
+++ b/data/Preparation/raw/Muva +.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\use\Dropbox (OPML)\LIGADA MEL\MEL working\09 Follow up studies\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6ED0A9B-D714-4D69-92E1-5B3D4BE7BED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE648A1-6363-49E5-A87E-91DED77BA414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2190" yWindow="2460" windowWidth="15375" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="354">
   <si>
     <t>Nome</t>
   </si>
@@ -1003,9 +1003,6 @@
   </si>
   <si>
     <t>845-316-954</t>
-  </si>
-  <si>
-    <t>826-055-680</t>
   </si>
   <si>
     <t>825-935-576</t>
@@ -1417,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N158"/>
+  <dimension ref="A1:N157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,75 +1547,63 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>269</v>
       </c>
       <c r="B4">
-        <v>35</v>
+        <v>1977</v>
       </c>
       <c r="C4" t="s">
         <v>157</v>
       </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>353</v>
       </c>
       <c r="G4" s="1">
-        <v>43556</v>
+        <v>43344</v>
       </c>
       <c r="H4" t="s">
         <v>159</v>
       </c>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>306</v>
       </c>
       <c r="J4" t="s">
-        <v>132</v>
-      </c>
-      <c r="L4" t="s">
-        <v>160</v>
-      </c>
-      <c r="N4" t="s">
-        <v>160</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="B5">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
+        <v>268</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="G5" s="1">
-        <v>43556</v>
+        <v>43770</v>
       </c>
       <c r="H5" t="s">
         <v>159</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" t="s">
-        <v>129</v>
+        <v>222</v>
       </c>
       <c r="L5" t="s">
         <v>160</v>
+      </c>
+      <c r="M5" t="s">
+        <v>267</v>
       </c>
       <c r="N5" t="s">
         <v>160</v>
@@ -1626,54 +1611,42 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>270</v>
       </c>
       <c r="B6">
-        <v>43</v>
+        <v>1988</v>
       </c>
       <c r="C6" t="s">
         <v>157</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>353</v>
       </c>
       <c r="G6" s="1">
-        <v>43556</v>
+        <v>43344</v>
       </c>
       <c r="H6" t="s">
         <v>159</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L6" t="s">
-        <v>160</v>
-      </c>
-      <c r="N6" t="s">
-        <v>160</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B7">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
         <v>157</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -1688,10 +1661,10 @@
         <v>159</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L7" t="s">
         <v>160</v>
@@ -1702,37 +1675,34 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="B8">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>157</v>
       </c>
-      <c r="D8">
-        <v>9</v>
-      </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="G8" s="1">
-        <v>43556</v>
+        <v>43770</v>
       </c>
       <c r="H8" t="s">
         <v>159</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" t="s">
-        <v>129</v>
+        <v>223</v>
       </c>
       <c r="L8" t="s">
         <v>160</v>
+      </c>
+      <c r="M8" t="s">
+        <v>267</v>
       </c>
       <c r="N8" t="s">
         <v>160</v>
@@ -1740,48 +1710,36 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>271</v>
       </c>
       <c r="B9">
-        <v>34</v>
+        <v>1978</v>
       </c>
       <c r="C9" t="s">
         <v>157</v>
       </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
       <c r="E9" t="s">
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>353</v>
       </c>
       <c r="G9" s="1">
-        <v>43556</v>
+        <v>43344</v>
       </c>
       <c r="H9" t="s">
         <v>159</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" t="s">
-        <v>129</v>
-      </c>
-      <c r="L9" t="s">
-        <v>160</v>
-      </c>
-      <c r="N9" t="s">
-        <v>160</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>157</v>
@@ -1802,7 +1760,7 @@
         <v>159</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s">
         <v>129</v>
@@ -1816,54 +1774,42 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>272</v>
       </c>
       <c r="B11">
-        <v>48</v>
+        <v>1977</v>
       </c>
       <c r="C11" t="s">
         <v>157</v>
       </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>353</v>
       </c>
       <c r="G11" s="1">
-        <v>43556</v>
+        <v>43344</v>
       </c>
       <c r="H11" t="s">
         <v>159</v>
       </c>
       <c r="I11" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11" t="s">
-        <v>131</v>
-      </c>
-      <c r="L11" t="s">
-        <v>160</v>
-      </c>
-      <c r="N11" t="s">
-        <v>160</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>157</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -1878,7 +1824,7 @@
         <v>159</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s">
         <v>129</v>
@@ -1892,37 +1838,34 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="B13">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
         <v>157</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
       <c r="E13" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="G13" s="1">
-        <v>43556</v>
+        <v>43770</v>
       </c>
       <c r="H13" t="s">
         <v>159</v>
       </c>
       <c r="I13" t="s">
-        <v>85</v>
-      </c>
-      <c r="J13" t="s">
-        <v>129</v>
+        <v>223</v>
       </c>
       <c r="L13" t="s">
         <v>160</v>
+      </c>
+      <c r="M13" t="s">
+        <v>267</v>
       </c>
       <c r="N13" t="s">
         <v>160</v>
@@ -1930,10 +1873,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
         <v>157</v>
@@ -1954,10 +1897,10 @@
         <v>159</v>
       </c>
       <c r="I14" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s">
         <v>160</v>
@@ -1968,13 +1911,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
         <v>157</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -1989,10 +1935,10 @@
         <v>159</v>
       </c>
       <c r="I15" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s">
         <v>160</v>
@@ -2003,10 +1949,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>164</v>
       </c>
       <c r="B16">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>157</v>
@@ -2015,22 +1961,22 @@
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="G16" s="1">
-        <v>43556</v>
+        <v>43770</v>
       </c>
       <c r="H16" t="s">
         <v>159</v>
       </c>
       <c r="I16" t="s">
-        <v>86</v>
-      </c>
-      <c r="J16" t="s">
-        <v>129</v>
+        <v>224</v>
       </c>
       <c r="L16" t="s">
         <v>160</v>
+      </c>
+      <c r="M16" t="s">
+        <v>267</v>
       </c>
       <c r="N16" t="s">
         <v>160</v>
@@ -2038,16 +1984,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B17">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
         <v>157</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -2062,7 +2008,7 @@
         <v>159</v>
       </c>
       <c r="I17" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s">
         <v>129</v>
@@ -2076,54 +2022,42 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>273</v>
       </c>
       <c r="B18">
-        <v>56</v>
+        <v>1976</v>
       </c>
       <c r="C18" t="s">
         <v>157</v>
       </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
       <c r="E18" t="s">
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>353</v>
       </c>
       <c r="G18" s="1">
-        <v>43556</v>
+        <v>43344</v>
       </c>
       <c r="H18" t="s">
         <v>159</v>
       </c>
       <c r="I18" t="s">
-        <v>118</v>
-      </c>
-      <c r="J18" t="s">
-        <v>147</v>
-      </c>
-      <c r="L18" t="s">
-        <v>160</v>
-      </c>
-      <c r="N18" t="s">
-        <v>160</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
         <v>157</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -2138,7 +2072,7 @@
         <v>159</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s">
         <v>129</v>
@@ -2152,86 +2086,59 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>274</v>
       </c>
       <c r="B20">
-        <v>51</v>
+        <v>1970</v>
       </c>
       <c r="C20" t="s">
         <v>157</v>
       </c>
-      <c r="D20">
-        <v>9</v>
-      </c>
       <c r="E20" t="s">
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>353</v>
       </c>
       <c r="G20" s="1">
-        <v>43556</v>
+        <v>43344</v>
       </c>
       <c r="H20" t="s">
         <v>159</v>
       </c>
       <c r="I20" t="s">
-        <v>89</v>
-      </c>
-      <c r="J20" t="s">
-        <v>129</v>
-      </c>
-      <c r="L20" t="s">
-        <v>160</v>
-      </c>
-      <c r="N20" t="s">
-        <v>160</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>275</v>
       </c>
       <c r="B21">
-        <v>30</v>
+        <v>1975</v>
       </c>
       <c r="C21" t="s">
         <v>157</v>
       </c>
-      <c r="D21">
-        <v>7</v>
-      </c>
       <c r="E21" t="s">
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>353</v>
       </c>
       <c r="G21" s="1">
-        <v>43556</v>
+        <v>43344</v>
       </c>
       <c r="H21" t="s">
         <v>159</v>
       </c>
       <c r="I21" t="s">
-        <v>90</v>
-      </c>
-      <c r="J21" t="s">
-        <v>129</v>
-      </c>
-      <c r="L21" t="s">
-        <v>160</v>
-      </c>
-      <c r="N21" t="s">
-        <v>160</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="C22" t="s">
         <v>157</v>
@@ -2240,22 +2147,19 @@
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="G22" s="1">
-        <v>43556</v>
+        <v>43770</v>
       </c>
       <c r="H22" t="s">
         <v>159</v>
       </c>
-      <c r="I22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J22" t="s">
-        <v>133</v>
-      </c>
       <c r="L22" t="s">
         <v>160</v>
+      </c>
+      <c r="M22" t="s">
+        <v>267</v>
       </c>
       <c r="N22" t="s">
         <v>160</v>
@@ -2263,37 +2167,34 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="B23">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
         <v>157</v>
       </c>
-      <c r="D23">
-        <v>6</v>
-      </c>
       <c r="E23" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="G23" s="1">
-        <v>43556</v>
+        <v>43770</v>
       </c>
       <c r="H23" t="s">
         <v>159</v>
       </c>
       <c r="I23" t="s">
-        <v>119</v>
-      </c>
-      <c r="J23" t="s">
-        <v>148</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s">
         <v>160</v>
+      </c>
+      <c r="M23" t="s">
+        <v>267</v>
       </c>
       <c r="N23" t="s">
         <v>160</v>
@@ -2301,16 +2202,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
         <v>157</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -2325,10 +2226,10 @@
         <v>159</v>
       </c>
       <c r="I24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L24" t="s">
         <v>160</v>
@@ -2339,10 +2240,10 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="B25">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
         <v>157</v>
@@ -2351,22 +2252,22 @@
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="G25" s="1">
-        <v>43556</v>
+        <v>43770</v>
       </c>
       <c r="H25" t="s">
         <v>159</v>
       </c>
       <c r="I25" t="s">
-        <v>92</v>
-      </c>
-      <c r="J25" t="s">
-        <v>129</v>
+        <v>226</v>
       </c>
       <c r="L25" t="s">
         <v>160</v>
+      </c>
+      <c r="M25" t="s">
+        <v>267</v>
       </c>
       <c r="N25" t="s">
         <v>160</v>
@@ -2374,75 +2275,60 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>276</v>
       </c>
       <c r="B26">
-        <v>22</v>
+        <v>1984</v>
       </c>
       <c r="C26" t="s">
         <v>157</v>
       </c>
-      <c r="D26">
-        <v>9</v>
-      </c>
       <c r="E26" t="s">
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>353</v>
       </c>
       <c r="G26" s="1">
-        <v>43556</v>
+        <v>43344</v>
       </c>
       <c r="H26" t="s">
         <v>159</v>
       </c>
       <c r="I26" t="s">
-        <v>120</v>
-      </c>
-      <c r="J26" t="s">
-        <v>149</v>
-      </c>
-      <c r="L26" t="s">
-        <v>160</v>
-      </c>
-      <c r="N26" t="s">
-        <v>160</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="B27">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
         <v>157</v>
       </c>
-      <c r="D27">
-        <v>6</v>
-      </c>
       <c r="E27" t="s">
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="G27" s="1">
-        <v>43556</v>
+        <v>43770</v>
       </c>
       <c r="H27" t="s">
         <v>159</v>
       </c>
       <c r="I27" t="s">
-        <v>121</v>
-      </c>
-      <c r="J27" t="s">
-        <v>150</v>
+        <v>227</v>
       </c>
       <c r="L27" t="s">
         <v>160</v>
+      </c>
+      <c r="M27" t="s">
+        <v>267</v>
       </c>
       <c r="N27" t="s">
         <v>160</v>
@@ -2450,37 +2336,34 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>169</v>
       </c>
       <c r="B28">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
         <v>157</v>
       </c>
-      <c r="D28">
-        <v>5</v>
-      </c>
       <c r="E28" t="s">
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="G28" s="1">
-        <v>43556</v>
+        <v>43770</v>
       </c>
       <c r="H28" t="s">
         <v>159</v>
       </c>
       <c r="I28" t="s">
-        <v>93</v>
-      </c>
-      <c r="J28" t="s">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="L28" t="s">
         <v>160</v>
+      </c>
+      <c r="M28" t="s">
+        <v>267</v>
       </c>
       <c r="N28" t="s">
         <v>160</v>
@@ -2488,37 +2371,34 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="B29">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
         <v>157</v>
       </c>
-      <c r="D29">
-        <v>6</v>
-      </c>
       <c r="E29" t="s">
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="G29" s="1">
-        <v>43556</v>
+        <v>43770</v>
       </c>
       <c r="H29" t="s">
         <v>159</v>
       </c>
       <c r="I29" t="s">
-        <v>94</v>
-      </c>
-      <c r="J29" t="s">
-        <v>134</v>
+        <v>229</v>
       </c>
       <c r="L29" t="s">
         <v>160</v>
+      </c>
+      <c r="M29" t="s">
+        <v>267</v>
       </c>
       <c r="N29" t="s">
         <v>160</v>
@@ -2526,113 +2406,86 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>277</v>
       </c>
       <c r="B30">
-        <v>53</v>
+        <v>1977</v>
       </c>
       <c r="C30" t="s">
         <v>157</v>
       </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
       <c r="E30" t="s">
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>353</v>
       </c>
       <c r="G30" s="1">
-        <v>43556</v>
+        <v>43344</v>
       </c>
       <c r="H30" t="s">
         <v>159</v>
       </c>
       <c r="I30" t="s">
-        <v>122</v>
-      </c>
-      <c r="J30" t="s">
-        <v>151</v>
-      </c>
-      <c r="L30" t="s">
-        <v>160</v>
-      </c>
-      <c r="N30" t="s">
-        <v>160</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>278</v>
       </c>
       <c r="B31">
-        <v>35</v>
+        <v>1986</v>
       </c>
       <c r="C31" t="s">
         <v>157</v>
       </c>
-      <c r="D31">
-        <v>8</v>
-      </c>
       <c r="E31" t="s">
         <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>353</v>
       </c>
       <c r="G31" s="1">
-        <v>43556</v>
+        <v>43344</v>
       </c>
       <c r="H31" t="s">
         <v>159</v>
       </c>
       <c r="I31" t="s">
-        <v>95</v>
-      </c>
-      <c r="J31" t="s">
-        <v>129</v>
-      </c>
-      <c r="L31" t="s">
-        <v>160</v>
-      </c>
-      <c r="N31" t="s">
-        <v>160</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="B32">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
         <v>157</v>
       </c>
-      <c r="D32">
-        <v>6</v>
-      </c>
       <c r="E32" t="s">
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="G32" s="1">
-        <v>43556</v>
+        <v>43770</v>
       </c>
       <c r="H32" t="s">
         <v>159</v>
       </c>
       <c r="I32" t="s">
-        <v>96</v>
-      </c>
-      <c r="J32" t="s">
-        <v>135</v>
+        <v>230</v>
       </c>
       <c r="L32" t="s">
         <v>160</v>
+      </c>
+      <c r="M32" t="s">
+        <v>267</v>
       </c>
       <c r="N32" t="s">
         <v>160</v>
@@ -2640,37 +2493,28 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="C33" t="s">
         <v>157</v>
       </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
       <c r="E33" t="s">
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="G33" s="1">
-        <v>43556</v>
+        <v>43770</v>
       </c>
       <c r="H33" t="s">
         <v>159</v>
       </c>
-      <c r="I33" t="s">
-        <v>97</v>
-      </c>
-      <c r="J33" t="s">
-        <v>129</v>
-      </c>
       <c r="L33" t="s">
         <v>160</v>
+      </c>
+      <c r="M33" t="s">
+        <v>267</v>
       </c>
       <c r="N33" t="s">
         <v>160</v>
@@ -2678,37 +2522,28 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="C34" t="s">
         <v>157</v>
       </c>
-      <c r="D34">
-        <v>5</v>
-      </c>
       <c r="E34" t="s">
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="G34" s="1">
-        <v>43556</v>
+        <v>43770</v>
       </c>
       <c r="H34" t="s">
         <v>159</v>
       </c>
-      <c r="I34" t="s">
-        <v>98</v>
-      </c>
-      <c r="J34" t="s">
-        <v>136</v>
-      </c>
       <c r="L34" t="s">
         <v>160</v>
+      </c>
+      <c r="M34" t="s">
+        <v>267</v>
       </c>
       <c r="N34" t="s">
         <v>160</v>
@@ -2716,48 +2551,36 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>279</v>
       </c>
       <c r="B35">
-        <v>38</v>
+        <v>1970</v>
       </c>
       <c r="C35" t="s">
         <v>157</v>
       </c>
-      <c r="D35">
-        <v>3</v>
-      </c>
       <c r="E35" t="s">
         <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>353</v>
       </c>
       <c r="G35" s="1">
-        <v>43556</v>
+        <v>43344</v>
       </c>
       <c r="H35" t="s">
         <v>159</v>
       </c>
       <c r="I35" t="s">
-        <v>99</v>
-      </c>
-      <c r="J35" t="s">
-        <v>129</v>
-      </c>
-      <c r="L35" t="s">
-        <v>160</v>
-      </c>
-      <c r="N35" t="s">
-        <v>160</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="B36">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
         <v>157</v>
@@ -2766,22 +2589,22 @@
         <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="G36" s="1">
-        <v>43556</v>
+        <v>43770</v>
       </c>
       <c r="H36" t="s">
         <v>159</v>
       </c>
       <c r="I36" t="s">
-        <v>100</v>
-      </c>
-      <c r="J36" t="s">
-        <v>137</v>
+        <v>231</v>
       </c>
       <c r="L36" t="s">
         <v>160</v>
+      </c>
+      <c r="M36" t="s">
+        <v>267</v>
       </c>
       <c r="N36" t="s">
         <v>160</v>
@@ -2789,10 +2612,10 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="B37">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
         <v>157</v>
@@ -2813,10 +2636,10 @@
         <v>159</v>
       </c>
       <c r="I37" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="J37" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="L37" t="s">
         <v>160</v>
@@ -2827,75 +2650,63 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>280</v>
       </c>
       <c r="B38">
-        <v>27</v>
+        <v>1971</v>
       </c>
       <c r="C38" t="s">
         <v>157</v>
       </c>
-      <c r="D38">
-        <v>7</v>
-      </c>
       <c r="E38" t="s">
         <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
+        <v>353</v>
       </c>
       <c r="G38" s="1">
-        <v>43556</v>
+        <v>43344</v>
       </c>
       <c r="H38" t="s">
         <v>159</v>
       </c>
       <c r="I38" t="s">
-        <v>101</v>
+        <v>317</v>
       </c>
       <c r="J38" t="s">
-        <v>129</v>
-      </c>
-      <c r="L38" t="s">
-        <v>160</v>
-      </c>
-      <c r="N38" t="s">
-        <v>160</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="B39">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
         <v>157</v>
       </c>
-      <c r="D39">
-        <v>3</v>
-      </c>
       <c r="E39" t="s">
         <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="G39" s="1">
-        <v>43556</v>
+        <v>43770</v>
       </c>
       <c r="H39" t="s">
         <v>159</v>
       </c>
       <c r="I39" t="s">
-        <v>102</v>
-      </c>
-      <c r="J39" t="s">
-        <v>138</v>
+        <v>232</v>
       </c>
       <c r="L39" t="s">
         <v>160</v>
+      </c>
+      <c r="M39" t="s">
+        <v>267</v>
       </c>
       <c r="N39" t="s">
         <v>160</v>
@@ -2903,16 +2714,16 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="B40">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
         <v>157</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E40" t="s">
         <v>14</v>
@@ -2927,7 +2738,7 @@
         <v>159</v>
       </c>
       <c r="I40" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="J40" t="s">
         <v>129</v>
@@ -2941,16 +2752,16 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B41">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
         <v>157</v>
       </c>
       <c r="D41">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E41" t="s">
         <v>14</v>
@@ -2965,10 +2776,10 @@
         <v>159</v>
       </c>
       <c r="I41" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="J41" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="L41" t="s">
         <v>160</v>
@@ -2979,37 +2790,28 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42">
-        <v>28</v>
+        <v>176</v>
       </c>
       <c r="C42" t="s">
         <v>157</v>
       </c>
-      <c r="D42">
-        <v>8</v>
-      </c>
       <c r="E42" t="s">
         <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="G42" s="1">
-        <v>43556</v>
+        <v>43770</v>
       </c>
       <c r="H42" t="s">
         <v>159</v>
       </c>
-      <c r="I42" t="s">
-        <v>104</v>
-      </c>
-      <c r="J42" t="s">
-        <v>129</v>
-      </c>
       <c r="L42" t="s">
         <v>160</v>
+      </c>
+      <c r="M42" t="s">
+        <v>267</v>
       </c>
       <c r="N42" t="s">
         <v>160</v>
@@ -3017,10 +2819,10 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c r="B43">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
         <v>157</v>
@@ -3029,22 +2831,22 @@
         <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="G43" s="1">
-        <v>43556</v>
+        <v>43770</v>
       </c>
       <c r="H43" t="s">
         <v>159</v>
       </c>
       <c r="I43" t="s">
-        <v>105</v>
-      </c>
-      <c r="J43" t="s">
-        <v>129</v>
+        <v>233</v>
       </c>
       <c r="L43" t="s">
         <v>160</v>
+      </c>
+      <c r="M43" t="s">
+        <v>267</v>
       </c>
       <c r="N43" t="s">
         <v>160</v>
@@ -3052,75 +2854,60 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>281</v>
       </c>
       <c r="B44">
-        <v>37</v>
+        <v>1976</v>
       </c>
       <c r="C44" t="s">
         <v>157</v>
       </c>
-      <c r="D44" t="s">
-        <v>158</v>
-      </c>
       <c r="E44" t="s">
         <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
+        <v>353</v>
       </c>
       <c r="G44" s="1">
-        <v>43556</v>
+        <v>43344</v>
       </c>
       <c r="H44" t="s">
         <v>159</v>
       </c>
       <c r="I44" t="s">
-        <v>106</v>
-      </c>
-      <c r="J44" t="s">
-        <v>129</v>
-      </c>
-      <c r="L44" t="s">
-        <v>160</v>
-      </c>
-      <c r="N44" t="s">
-        <v>160</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="B45">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
         <v>157</v>
       </c>
-      <c r="D45">
-        <v>7</v>
-      </c>
       <c r="E45" t="s">
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="G45" s="1">
-        <v>43556</v>
+        <v>43770</v>
       </c>
       <c r="H45" t="s">
         <v>159</v>
       </c>
       <c r="I45" t="s">
-        <v>107</v>
-      </c>
-      <c r="J45" t="s">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="L45" t="s">
         <v>160</v>
+      </c>
+      <c r="M45" t="s">
+        <v>267</v>
       </c>
       <c r="N45" t="s">
         <v>160</v>
@@ -3128,16 +2915,13 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B46">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
         <v>157</v>
-      </c>
-      <c r="D46">
-        <v>12</v>
       </c>
       <c r="E46" t="s">
         <v>14</v>
@@ -3152,10 +2936,10 @@
         <v>159</v>
       </c>
       <c r="I46" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J46" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="L46" t="s">
         <v>160</v>
@@ -3166,16 +2950,13 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="B47">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
         <v>157</v>
-      </c>
-      <c r="D47">
-        <v>10</v>
       </c>
       <c r="E47" t="s">
         <v>14</v>
@@ -3190,10 +2971,10 @@
         <v>159</v>
       </c>
       <c r="I47" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="J47" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="L47" t="s">
         <v>160</v>
@@ -3204,37 +2985,28 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="C48" t="s">
         <v>157</v>
       </c>
-      <c r="D48">
-        <v>7</v>
-      </c>
       <c r="E48" t="s">
         <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="G48" s="1">
-        <v>43556</v>
+        <v>43770</v>
       </c>
       <c r="H48" t="s">
         <v>159</v>
       </c>
-      <c r="I48" t="s">
-        <v>109</v>
-      </c>
-      <c r="J48" t="s">
-        <v>141</v>
-      </c>
       <c r="L48" t="s">
         <v>160</v>
+      </c>
+      <c r="M48" t="s">
+        <v>267</v>
       </c>
       <c r="N48" t="s">
         <v>160</v>
@@ -3242,16 +3014,16 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B49">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C49" t="s">
         <v>157</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E49" t="s">
         <v>14</v>
@@ -3266,7 +3038,7 @@
         <v>159</v>
       </c>
       <c r="I49" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s">
         <v>129</v>
@@ -3280,51 +3052,45 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>282</v>
       </c>
       <c r="B50">
-        <v>55</v>
+        <v>1980</v>
       </c>
       <c r="C50" t="s">
         <v>157</v>
       </c>
-      <c r="D50">
-        <v>3</v>
-      </c>
       <c r="E50" t="s">
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
+        <v>353</v>
       </c>
       <c r="G50" s="1">
-        <v>43556</v>
+        <v>43344</v>
       </c>
       <c r="H50" t="s">
         <v>159</v>
       </c>
       <c r="I50" t="s">
-        <v>126</v>
+        <v>319</v>
       </c>
       <c r="J50" t="s">
-        <v>154</v>
-      </c>
-      <c r="L50" t="s">
-        <v>160</v>
-      </c>
-      <c r="N50" t="s">
-        <v>160</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B51">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
         <v>157</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
       </c>
       <c r="E51" t="s">
         <v>14</v>
@@ -3339,10 +3105,10 @@
         <v>159</v>
       </c>
       <c r="I51" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="J51" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L51" t="s">
         <v>160</v>
@@ -3353,16 +3119,16 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B52">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C52" t="s">
         <v>157</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E52" t="s">
         <v>14</v>
@@ -3377,10 +3143,10 @@
         <v>159</v>
       </c>
       <c r="I52" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="J52" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="L52" t="s">
         <v>160</v>
@@ -3391,37 +3157,34 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="B53">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C53" t="s">
         <v>157</v>
       </c>
-      <c r="D53">
-        <v>6</v>
-      </c>
       <c r="E53" t="s">
         <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="G53" s="1">
-        <v>43556</v>
+        <v>43770</v>
       </c>
       <c r="H53" t="s">
         <v>159</v>
       </c>
       <c r="I53" t="s">
-        <v>128</v>
-      </c>
-      <c r="J53" t="s">
-        <v>156</v>
+        <v>235</v>
       </c>
       <c r="L53" t="s">
         <v>160</v>
+      </c>
+      <c r="M53" t="s">
+        <v>267</v>
       </c>
       <c r="N53" t="s">
         <v>160</v>
@@ -3429,37 +3192,34 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c r="B54">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C54" t="s">
         <v>157</v>
       </c>
-      <c r="D54">
-        <v>9</v>
-      </c>
       <c r="E54" t="s">
         <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="G54" s="1">
-        <v>43556</v>
+        <v>43770</v>
       </c>
       <c r="H54" t="s">
         <v>159</v>
       </c>
       <c r="I54" t="s">
-        <v>112</v>
-      </c>
-      <c r="J54" t="s">
-        <v>129</v>
+        <v>236</v>
       </c>
       <c r="L54" t="s">
         <v>160</v>
+      </c>
+      <c r="M54" t="s">
+        <v>267</v>
       </c>
       <c r="N54" t="s">
         <v>160</v>
@@ -3467,37 +3227,34 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>182</v>
       </c>
       <c r="B55">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
         <v>157</v>
       </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
       <c r="E55" t="s">
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="G55" s="1">
-        <v>43556</v>
+        <v>43770</v>
       </c>
       <c r="H55" t="s">
         <v>159</v>
       </c>
       <c r="I55" t="s">
-        <v>82</v>
-      </c>
-      <c r="J55" t="s">
-        <v>129</v>
+        <v>237</v>
       </c>
       <c r="L55" t="s">
         <v>160</v>
+      </c>
+      <c r="M55" t="s">
+        <v>267</v>
       </c>
       <c r="N55" t="s">
         <v>160</v>
@@ -3505,37 +3262,34 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="B56">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C56" t="s">
         <v>157</v>
       </c>
-      <c r="D56">
-        <v>12</v>
-      </c>
       <c r="E56" t="s">
         <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="G56" s="1">
-        <v>43556</v>
+        <v>43770</v>
       </c>
       <c r="H56" t="s">
         <v>159</v>
       </c>
       <c r="I56" t="s">
-        <v>113</v>
-      </c>
-      <c r="J56" t="s">
-        <v>143</v>
+        <v>238</v>
       </c>
       <c r="L56" t="s">
         <v>160</v>
+      </c>
+      <c r="M56" t="s">
+        <v>267</v>
       </c>
       <c r="N56" t="s">
         <v>160</v>
@@ -3543,16 +3297,16 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B57">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C57" t="s">
         <v>157</v>
       </c>
       <c r="D57">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
@@ -3567,10 +3321,10 @@
         <v>159</v>
       </c>
       <c r="I57" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="J57" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="L57" t="s">
         <v>160</v>
@@ -3581,16 +3335,16 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B58">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C58" t="s">
         <v>157</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E58" t="s">
         <v>14</v>
@@ -3605,7 +3359,7 @@
         <v>159</v>
       </c>
       <c r="I58" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="J58" t="s">
         <v>129</v>
@@ -3619,37 +3373,34 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>184</v>
       </c>
       <c r="B59">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C59" t="s">
         <v>157</v>
       </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
       <c r="E59" t="s">
         <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="G59" s="1">
-        <v>43556</v>
+        <v>43770</v>
       </c>
       <c r="H59" t="s">
         <v>159</v>
       </c>
       <c r="I59" t="s">
-        <v>97</v>
-      </c>
-      <c r="J59" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="L59" t="s">
         <v>160</v>
+      </c>
+      <c r="M59" t="s">
+        <v>267</v>
       </c>
       <c r="N59" t="s">
         <v>160</v>
@@ -3657,13 +3408,13 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="B60">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C60" t="s">
-        <v>268</v>
+        <v>157</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
@@ -3678,7 +3429,7 @@
         <v>159</v>
       </c>
       <c r="I60" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="L60" t="s">
         <v>160</v>
@@ -3692,10 +3443,10 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="B61">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C61" t="s">
         <v>157</v>
@@ -3713,7 +3464,7 @@
         <v>159</v>
       </c>
       <c r="I61" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="L61" t="s">
         <v>160</v>
@@ -3727,10 +3478,10 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="B62">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C62" t="s">
         <v>157</v>
@@ -3739,22 +3490,22 @@
         <v>14</v>
       </c>
       <c r="F62" t="s">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c r="G62" s="1">
-        <v>43770</v>
+        <v>43556</v>
       </c>
       <c r="H62" t="s">
         <v>159</v>
       </c>
       <c r="I62" t="s">
-        <v>223</v>
+        <v>91</v>
+      </c>
+      <c r="J62" t="s">
+        <v>133</v>
       </c>
       <c r="L62" t="s">
         <v>160</v>
-      </c>
-      <c r="M62" t="s">
-        <v>267</v>
       </c>
       <c r="N62" t="s">
         <v>160</v>
@@ -3762,10 +3513,10 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="B63">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C63" t="s">
         <v>157</v>
@@ -3783,7 +3534,7 @@
         <v>159</v>
       </c>
       <c r="I63" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="L63" t="s">
         <v>160</v>
@@ -3797,7 +3548,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="C64" t="s">
         <v>157</v>
@@ -3826,10 +3577,10 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="B65">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C65" t="s">
         <v>157</v>
@@ -3847,7 +3598,7 @@
         <v>159</v>
       </c>
       <c r="I65" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="L65" t="s">
         <v>160</v>
@@ -3861,34 +3612,37 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C66" t="s">
         <v>157</v>
       </c>
+      <c r="D66">
+        <v>6</v>
+      </c>
       <c r="E66" t="s">
         <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c r="G66" s="1">
-        <v>43770</v>
+        <v>43556</v>
       </c>
       <c r="H66" t="s">
         <v>159</v>
       </c>
       <c r="I66" t="s">
-        <v>226</v>
+        <v>119</v>
+      </c>
+      <c r="J66" t="s">
+        <v>148</v>
       </c>
       <c r="L66" t="s">
         <v>160</v>
-      </c>
-      <c r="M66" t="s">
-        <v>267</v>
       </c>
       <c r="N66" t="s">
         <v>160</v>
@@ -3896,34 +3650,37 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="B67">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C67" t="s">
         <v>157</v>
       </c>
+      <c r="D67">
+        <v>7</v>
+      </c>
       <c r="E67" t="s">
         <v>14</v>
       </c>
       <c r="F67" t="s">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c r="G67" s="1">
-        <v>43770</v>
+        <v>43556</v>
       </c>
       <c r="H67" t="s">
         <v>159</v>
       </c>
       <c r="I67" t="s">
-        <v>227</v>
+        <v>85</v>
+      </c>
+      <c r="J67" t="s">
+        <v>129</v>
       </c>
       <c r="L67" t="s">
         <v>160</v>
-      </c>
-      <c r="M67" t="s">
-        <v>267</v>
       </c>
       <c r="N67" t="s">
         <v>160</v>
@@ -3931,10 +3688,10 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="B68">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C68" t="s">
         <v>157</v>
@@ -3943,22 +3700,22 @@
         <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c r="G68" s="1">
-        <v>43770</v>
+        <v>43556</v>
       </c>
       <c r="H68" t="s">
         <v>159</v>
       </c>
       <c r="I68" t="s">
-        <v>228</v>
+        <v>92</v>
+      </c>
+      <c r="J68" t="s">
+        <v>129</v>
       </c>
       <c r="L68" t="s">
         <v>160</v>
-      </c>
-      <c r="M68" t="s">
-        <v>267</v>
       </c>
       <c r="N68" t="s">
         <v>160</v>
@@ -3966,10 +3723,10 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
       <c r="B69">
-        <v>38</v>
+        <v>1975</v>
       </c>
       <c r="C69" t="s">
         <v>157</v>
@@ -3978,33 +3735,24 @@
         <v>14</v>
       </c>
       <c r="F69" t="s">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="G69" s="1">
-        <v>43770</v>
+        <v>43344</v>
       </c>
       <c r="H69" t="s">
         <v>159</v>
       </c>
       <c r="I69" t="s">
-        <v>229</v>
-      </c>
-      <c r="L69" t="s">
-        <v>160</v>
-      </c>
-      <c r="M69" t="s">
-        <v>267</v>
-      </c>
-      <c r="N69" t="s">
-        <v>160</v>
+        <v>320</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="B70">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C70" t="s">
         <v>157</v>
@@ -4022,7 +3770,7 @@
         <v>159</v>
       </c>
       <c r="I70" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="L70" t="s">
         <v>160</v>
@@ -4036,7 +3784,10 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>172</v>
+        <v>284</v>
+      </c>
+      <c r="B71">
+        <v>1970</v>
       </c>
       <c r="C71" t="s">
         <v>157</v>
@@ -4045,27 +3796,24 @@
         <v>14</v>
       </c>
       <c r="F71" t="s">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="G71" s="1">
-        <v>43770</v>
+        <v>43344</v>
       </c>
       <c r="H71" t="s">
         <v>159</v>
       </c>
-      <c r="L71" t="s">
-        <v>160</v>
-      </c>
-      <c r="M71" t="s">
-        <v>267</v>
-      </c>
-      <c r="N71" t="s">
-        <v>160</v>
+      <c r="I71" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>173</v>
+        <v>285</v>
+      </c>
+      <c r="B72">
+        <v>1990</v>
       </c>
       <c r="C72" t="s">
         <v>157</v>
@@ -4074,54 +3822,51 @@
         <v>14</v>
       </c>
       <c r="F72" t="s">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="G72" s="1">
-        <v>43770</v>
+        <v>43344</v>
       </c>
       <c r="H72" t="s">
         <v>159</v>
       </c>
-      <c r="L72" t="s">
-        <v>160</v>
-      </c>
-      <c r="M72" t="s">
-        <v>267</v>
-      </c>
-      <c r="N72" t="s">
-        <v>160</v>
+      <c r="I72" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>174</v>
+        <v>65</v>
       </c>
       <c r="B73">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C73" t="s">
         <v>157</v>
       </c>
+      <c r="D73">
+        <v>9</v>
+      </c>
       <c r="E73" t="s">
         <v>14</v>
       </c>
       <c r="F73" t="s">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c r="G73" s="1">
-        <v>43770</v>
+        <v>43556</v>
       </c>
       <c r="H73" t="s">
         <v>159</v>
       </c>
       <c r="I73" t="s">
-        <v>231</v>
+        <v>120</v>
+      </c>
+      <c r="J73" t="s">
+        <v>149</v>
       </c>
       <c r="L73" t="s">
         <v>160</v>
-      </c>
-      <c r="M73" t="s">
-        <v>267</v>
       </c>
       <c r="N73" t="s">
         <v>160</v>
@@ -4129,34 +3874,37 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>175</v>
+        <v>66</v>
       </c>
       <c r="B74">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C74" t="s">
         <v>157</v>
       </c>
+      <c r="D74">
+        <v>6</v>
+      </c>
       <c r="E74" t="s">
         <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c r="G74" s="1">
-        <v>43770</v>
+        <v>43556</v>
       </c>
       <c r="H74" t="s">
         <v>159</v>
       </c>
       <c r="I74" t="s">
-        <v>232</v>
+        <v>121</v>
+      </c>
+      <c r="J74" t="s">
+        <v>150</v>
       </c>
       <c r="L74" t="s">
         <v>160</v>
-      </c>
-      <c r="M74" t="s">
-        <v>267</v>
       </c>
       <c r="N74" t="s">
         <v>160</v>
@@ -4164,7 +3912,10 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>176</v>
+        <v>191</v>
+      </c>
+      <c r="B75">
+        <v>46</v>
       </c>
       <c r="C75" t="s">
         <v>157</v>
@@ -4181,6 +3932,9 @@
       <c r="H75" t="s">
         <v>159</v>
       </c>
+      <c r="I75" t="s">
+        <v>245</v>
+      </c>
       <c r="L75" t="s">
         <v>160</v>
       </c>
@@ -4193,34 +3947,37 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="B76">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C76" t="s">
         <v>157</v>
       </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
       <c r="E76" t="s">
         <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c r="G76" s="1">
-        <v>43770</v>
+        <v>43556</v>
       </c>
       <c r="H76" t="s">
         <v>159</v>
       </c>
       <c r="I76" t="s">
-        <v>233</v>
+        <v>93</v>
+      </c>
+      <c r="J76" t="s">
+        <v>129</v>
       </c>
       <c r="L76" t="s">
         <v>160</v>
-      </c>
-      <c r="M76" t="s">
-        <v>267</v>
       </c>
       <c r="N76" t="s">
         <v>160</v>
@@ -4228,10 +3985,10 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>178</v>
+        <v>286</v>
       </c>
       <c r="B77">
-        <v>39</v>
+        <v>1991</v>
       </c>
       <c r="C77" t="s">
         <v>157</v>
@@ -4240,51 +3997,54 @@
         <v>14</v>
       </c>
       <c r="F77" t="s">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="G77" s="1">
-        <v>43770</v>
+        <v>43344</v>
       </c>
       <c r="H77" t="s">
         <v>159</v>
       </c>
       <c r="I77" t="s">
-        <v>234</v>
-      </c>
-      <c r="L77" t="s">
-        <v>160</v>
-      </c>
-      <c r="M77" t="s">
-        <v>267</v>
-      </c>
-      <c r="N77" t="s">
-        <v>160</v>
+        <v>323</v>
+      </c>
+      <c r="J77" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>179</v>
+        <v>37</v>
+      </c>
+      <c r="B78">
+        <v>57</v>
       </c>
       <c r="C78" t="s">
         <v>157</v>
       </c>
+      <c r="D78">
+        <v>6</v>
+      </c>
       <c r="E78" t="s">
         <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c r="G78" s="1">
-        <v>43770</v>
+        <v>43556</v>
       </c>
       <c r="H78" t="s">
         <v>159</v>
       </c>
+      <c r="I78" t="s">
+        <v>94</v>
+      </c>
+      <c r="J78" t="s">
+        <v>134</v>
+      </c>
       <c r="L78" t="s">
         <v>160</v>
-      </c>
-      <c r="M78" t="s">
-        <v>267</v>
       </c>
       <c r="N78" t="s">
         <v>160</v>
@@ -4292,10 +4052,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>180</v>
-      </c>
-      <c r="B79">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="C79" t="s">
         <v>157</v>
@@ -4312,9 +4069,6 @@
       <c r="H79" t="s">
         <v>159</v>
       </c>
-      <c r="I79" t="s">
-        <v>235</v>
-      </c>
       <c r="L79" t="s">
         <v>160</v>
       </c>
@@ -4327,34 +4081,37 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
       <c r="B80">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C80" t="s">
         <v>157</v>
       </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
       <c r="E80" t="s">
         <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c r="G80" s="1">
-        <v>43770</v>
+        <v>43556</v>
       </c>
       <c r="H80" t="s">
         <v>159</v>
       </c>
       <c r="I80" t="s">
-        <v>236</v>
+        <v>122</v>
+      </c>
+      <c r="J80" t="s">
+        <v>151</v>
       </c>
       <c r="L80" t="s">
         <v>160</v>
-      </c>
-      <c r="M80" t="s">
-        <v>267</v>
       </c>
       <c r="N80" t="s">
         <v>160</v>
@@ -4362,34 +4119,37 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="B81">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C81" t="s">
         <v>157</v>
       </c>
+      <c r="D81">
+        <v>8</v>
+      </c>
       <c r="E81" t="s">
         <v>14</v>
       </c>
       <c r="F81" t="s">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c r="G81" s="1">
-        <v>43770</v>
+        <v>43556</v>
       </c>
       <c r="H81" t="s">
         <v>159</v>
       </c>
       <c r="I81" t="s">
-        <v>237</v>
+        <v>95</v>
+      </c>
+      <c r="J81" t="s">
+        <v>129</v>
       </c>
       <c r="L81" t="s">
         <v>160</v>
-      </c>
-      <c r="M81" t="s">
-        <v>267</v>
       </c>
       <c r="N81" t="s">
         <v>160</v>
@@ -4397,10 +4157,10 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>183</v>
+        <v>287</v>
       </c>
       <c r="B82">
-        <v>46</v>
+        <v>1974</v>
       </c>
       <c r="C82" t="s">
         <v>157</v>
@@ -4409,33 +4169,24 @@
         <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="G82" s="1">
-        <v>43770</v>
+        <v>43344</v>
       </c>
       <c r="H82" t="s">
         <v>159</v>
       </c>
       <c r="I82" t="s">
-        <v>238</v>
-      </c>
-      <c r="L82" t="s">
-        <v>160</v>
-      </c>
-      <c r="M82" t="s">
-        <v>267</v>
-      </c>
-      <c r="N82" t="s">
-        <v>160</v>
+        <v>324</v>
+      </c>
+      <c r="J82" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>184</v>
-      </c>
-      <c r="B83">
-        <v>34</v>
+        <v>194</v>
       </c>
       <c r="C83" t="s">
         <v>157</v>
@@ -4452,9 +4203,6 @@
       <c r="H83" t="s">
         <v>159</v>
       </c>
-      <c r="I83" t="s">
-        <v>239</v>
-      </c>
       <c r="L83" t="s">
         <v>160</v>
       </c>
@@ -4467,10 +4215,10 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B84">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C84" t="s">
         <v>157</v>
@@ -4488,7 +4236,7 @@
         <v>159</v>
       </c>
       <c r="I84" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L84" t="s">
         <v>160</v>
@@ -4502,34 +4250,37 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>186</v>
+        <v>39</v>
       </c>
       <c r="B85">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C85" t="s">
         <v>157</v>
       </c>
+      <c r="D85">
+        <v>6</v>
+      </c>
       <c r="E85" t="s">
         <v>14</v>
       </c>
       <c r="F85" t="s">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c r="G85" s="1">
-        <v>43770</v>
+        <v>43556</v>
       </c>
       <c r="H85" t="s">
         <v>159</v>
       </c>
       <c r="I85" t="s">
-        <v>241</v>
+        <v>96</v>
+      </c>
+      <c r="J85" t="s">
+        <v>135</v>
       </c>
       <c r="L85" t="s">
         <v>160</v>
-      </c>
-      <c r="M85" t="s">
-        <v>267</v>
       </c>
       <c r="N85" t="s">
         <v>160</v>
@@ -4537,10 +4288,10 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>187</v>
+        <v>288</v>
       </c>
       <c r="B86">
-        <v>29</v>
+        <v>1976</v>
       </c>
       <c r="C86" t="s">
         <v>157</v>
@@ -4549,30 +4300,24 @@
         <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="G86" s="1">
-        <v>43770</v>
+        <v>43344</v>
       </c>
       <c r="H86" t="s">
         <v>159</v>
       </c>
       <c r="I86" t="s">
-        <v>242</v>
-      </c>
-      <c r="L86" t="s">
-        <v>160</v>
-      </c>
-      <c r="M86" t="s">
-        <v>267</v>
-      </c>
-      <c r="N86" t="s">
-        <v>160</v>
+        <v>325</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>188</v>
+        <v>289</v>
+      </c>
+      <c r="B87">
+        <v>1970</v>
       </c>
       <c r="C87" t="s">
         <v>157</v>
@@ -4581,30 +4326,27 @@
         <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="G87" s="1">
-        <v>43770</v>
+        <v>43344</v>
       </c>
       <c r="H87" t="s">
         <v>159</v>
       </c>
-      <c r="L87" t="s">
-        <v>160</v>
-      </c>
-      <c r="M87" t="s">
-        <v>267</v>
-      </c>
-      <c r="N87" t="s">
-        <v>160</v>
+      <c r="I87" t="s">
+        <v>326</v>
+      </c>
+      <c r="J87" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B88">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C88" t="s">
         <v>157</v>
@@ -4622,7 +4364,7 @@
         <v>159</v>
       </c>
       <c r="I88" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L88" t="s">
         <v>160</v>
@@ -4636,10 +4378,10 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="B89">
-        <v>46</v>
+        <v>1977</v>
       </c>
       <c r="C89" t="s">
         <v>157</v>
@@ -4648,57 +4390,51 @@
         <v>14</v>
       </c>
       <c r="F89" t="s">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="G89" s="1">
-        <v>43770</v>
+        <v>43344</v>
       </c>
       <c r="H89" t="s">
         <v>159</v>
       </c>
       <c r="I89" t="s">
-        <v>244</v>
-      </c>
-      <c r="L89" t="s">
-        <v>160</v>
-      </c>
-      <c r="M89" t="s">
-        <v>267</v>
-      </c>
-      <c r="N89" t="s">
-        <v>160</v>
+        <v>327</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="B90">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C90" t="s">
         <v>157</v>
       </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
       <c r="E90" t="s">
         <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c r="G90" s="1">
-        <v>43770</v>
+        <v>43556</v>
       </c>
       <c r="H90" t="s">
         <v>159</v>
       </c>
       <c r="I90" t="s">
-        <v>245</v>
+        <v>97</v>
+      </c>
+      <c r="J90" t="s">
+        <v>129</v>
       </c>
       <c r="L90" t="s">
         <v>160</v>
-      </c>
-      <c r="M90" t="s">
-        <v>267</v>
       </c>
       <c r="N90" t="s">
         <v>160</v>
@@ -4706,7 +4442,10 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>192</v>
+        <v>196</v>
+      </c>
+      <c r="B91">
+        <v>39</v>
       </c>
       <c r="C91" t="s">
         <v>157</v>
@@ -4723,6 +4462,9 @@
       <c r="H91" t="s">
         <v>159</v>
       </c>
+      <c r="I91" t="s">
+        <v>248</v>
+      </c>
       <c r="L91" t="s">
         <v>160</v>
       </c>
@@ -4735,34 +4477,37 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="B92">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C92" t="s">
         <v>157</v>
       </c>
+      <c r="D92">
+        <v>5</v>
+      </c>
       <c r="E92" t="s">
         <v>14</v>
       </c>
       <c r="F92" t="s">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c r="G92" s="1">
-        <v>43770</v>
+        <v>43556</v>
       </c>
       <c r="H92" t="s">
         <v>159</v>
       </c>
       <c r="I92" t="s">
-        <v>246</v>
+        <v>98</v>
+      </c>
+      <c r="J92" t="s">
+        <v>136</v>
       </c>
       <c r="L92" t="s">
         <v>160</v>
-      </c>
-      <c r="M92" t="s">
-        <v>267</v>
       </c>
       <c r="N92" t="s">
         <v>160</v>
@@ -4770,7 +4515,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C93" t="s">
         <v>157</v>
@@ -4799,34 +4544,37 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>195</v>
+        <v>42</v>
       </c>
       <c r="B94">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C94" t="s">
         <v>157</v>
       </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
       <c r="E94" t="s">
         <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c r="G94" s="1">
-        <v>43770</v>
+        <v>43556</v>
       </c>
       <c r="H94" t="s">
         <v>159</v>
       </c>
       <c r="I94" t="s">
-        <v>247</v>
+        <v>99</v>
+      </c>
+      <c r="J94" t="s">
+        <v>129</v>
       </c>
       <c r="L94" t="s">
         <v>160</v>
-      </c>
-      <c r="M94" t="s">
-        <v>267</v>
       </c>
       <c r="N94" t="s">
         <v>160</v>
@@ -4834,10 +4582,10 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>196</v>
+        <v>291</v>
       </c>
       <c r="B95">
-        <v>39</v>
+        <v>1987</v>
       </c>
       <c r="C95" t="s">
         <v>157</v>
@@ -4846,30 +4594,24 @@
         <v>14</v>
       </c>
       <c r="F95" t="s">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="G95" s="1">
-        <v>43770</v>
+        <v>43344</v>
       </c>
       <c r="H95" t="s">
         <v>159</v>
       </c>
       <c r="I95" t="s">
-        <v>248</v>
-      </c>
-      <c r="L95" t="s">
-        <v>160</v>
-      </c>
-      <c r="M95" t="s">
-        <v>267</v>
-      </c>
-      <c r="N95" t="s">
-        <v>160</v>
+        <v>328</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>197</v>
+        <v>292</v>
+      </c>
+      <c r="B96">
+        <v>1970</v>
       </c>
       <c r="C96" t="s">
         <v>157</v>
@@ -4878,27 +4620,24 @@
         <v>14</v>
       </c>
       <c r="F96" t="s">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="G96" s="1">
-        <v>43770</v>
+        <v>43344</v>
       </c>
       <c r="H96" t="s">
         <v>159</v>
       </c>
-      <c r="L96" t="s">
-        <v>160</v>
-      </c>
-      <c r="M96" t="s">
-        <v>267</v>
-      </c>
-      <c r="N96" t="s">
-        <v>160</v>
+      <c r="I96" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>198</v>
+        <v>293</v>
+      </c>
+      <c r="B97">
+        <v>1988</v>
       </c>
       <c r="C97" t="s">
         <v>157</v>
@@ -4907,30 +4646,27 @@
         <v>14</v>
       </c>
       <c r="F97" t="s">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="G97" s="1">
-        <v>43770</v>
+        <v>43344</v>
       </c>
       <c r="H97" t="s">
         <v>159</v>
       </c>
-      <c r="L97" t="s">
-        <v>160</v>
-      </c>
-      <c r="M97" t="s">
-        <v>267</v>
-      </c>
-      <c r="N97" t="s">
-        <v>160</v>
+      <c r="I97" t="s">
+        <v>330</v>
+      </c>
+      <c r="J97" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>199</v>
+        <v>43</v>
       </c>
       <c r="B98">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C98" t="s">
         <v>157</v>
@@ -4939,22 +4675,22 @@
         <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c r="G98" s="1">
-        <v>43770</v>
+        <v>43556</v>
       </c>
       <c r="H98" t="s">
         <v>159</v>
       </c>
       <c r="I98" t="s">
-        <v>249</v>
+        <v>100</v>
+      </c>
+      <c r="J98" t="s">
+        <v>137</v>
       </c>
       <c r="L98" t="s">
         <v>160</v>
-      </c>
-      <c r="M98" t="s">
-        <v>267</v>
       </c>
       <c r="N98" t="s">
         <v>160</v>
@@ -4962,10 +4698,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>200</v>
-      </c>
-      <c r="B99">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="C99" t="s">
         <v>157</v>
@@ -4982,9 +4715,6 @@
       <c r="H99" t="s">
         <v>159</v>
       </c>
-      <c r="I99" t="s">
-        <v>250</v>
-      </c>
       <c r="L99" t="s">
         <v>160</v>
       </c>
@@ -4997,28 +4727,37 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>201</v>
+        <v>68</v>
+      </c>
+      <c r="B100">
+        <v>33</v>
       </c>
       <c r="C100" t="s">
         <v>157</v>
       </c>
+      <c r="D100">
+        <v>7</v>
+      </c>
       <c r="E100" t="s">
         <v>14</v>
       </c>
       <c r="F100" t="s">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c r="G100" s="1">
-        <v>43770</v>
+        <v>43556</v>
       </c>
       <c r="H100" t="s">
         <v>159</v>
       </c>
+      <c r="I100" t="s">
+        <v>123</v>
+      </c>
+      <c r="J100" t="s">
+        <v>152</v>
+      </c>
       <c r="L100" t="s">
         <v>160</v>
-      </c>
-      <c r="M100" t="s">
-        <v>267</v>
       </c>
       <c r="N100" t="s">
         <v>160</v>
@@ -5026,10 +4765,10 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B101">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C101" t="s">
         <v>157</v>
@@ -5047,7 +4786,7 @@
         <v>159</v>
       </c>
       <c r="I101" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="L101" t="s">
         <v>160</v>
@@ -5061,10 +4800,10 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B102">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C102" t="s">
         <v>157</v>
@@ -5082,7 +4821,7 @@
         <v>159</v>
       </c>
       <c r="I102" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L102" t="s">
         <v>160</v>
@@ -5096,10 +4835,10 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>204</v>
+        <v>294</v>
       </c>
       <c r="B103">
-        <v>35</v>
+        <v>1986</v>
       </c>
       <c r="C103" t="s">
         <v>157</v>
@@ -5108,33 +4847,24 @@
         <v>14</v>
       </c>
       <c r="F103" t="s">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="G103" s="1">
-        <v>43770</v>
+        <v>43344</v>
       </c>
       <c r="H103" t="s">
         <v>159</v>
       </c>
       <c r="I103" t="s">
-        <v>252</v>
-      </c>
-      <c r="L103" t="s">
-        <v>160</v>
-      </c>
-      <c r="M103" t="s">
-        <v>267</v>
-      </c>
-      <c r="N103" t="s">
-        <v>160</v>
+        <v>331</v>
+      </c>
+      <c r="J103" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>205</v>
-      </c>
-      <c r="B104">
-        <v>37</v>
+        <v>201</v>
       </c>
       <c r="C104" t="s">
         <v>157</v>
@@ -5151,9 +4881,6 @@
       <c r="H104" t="s">
         <v>159</v>
       </c>
-      <c r="I104" t="s">
-        <v>253</v>
-      </c>
       <c r="L104" t="s">
         <v>160</v>
       </c>
@@ -5166,10 +4893,10 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B105">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C105" t="s">
         <v>157</v>
@@ -5187,7 +4914,7 @@
         <v>159</v>
       </c>
       <c r="I105" t="s">
-        <v>254</v>
+        <v>129</v>
       </c>
       <c r="L105" t="s">
         <v>160</v>
@@ -5201,28 +4928,37 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>207</v>
+        <v>44</v>
+      </c>
+      <c r="B106">
+        <v>27</v>
       </c>
       <c r="C106" t="s">
         <v>157</v>
       </c>
+      <c r="D106">
+        <v>7</v>
+      </c>
       <c r="E106" t="s">
         <v>14</v>
       </c>
       <c r="F106" t="s">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c r="G106" s="1">
-        <v>43770</v>
+        <v>43556</v>
       </c>
       <c r="H106" t="s">
         <v>159</v>
       </c>
+      <c r="I106" t="s">
+        <v>101</v>
+      </c>
+      <c r="J106" t="s">
+        <v>129</v>
+      </c>
       <c r="L106" t="s">
         <v>160</v>
-      </c>
-      <c r="M106" t="s">
-        <v>267</v>
       </c>
       <c r="N106" t="s">
         <v>160</v>
@@ -5230,10 +4966,10 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B107">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C107" t="s">
         <v>157</v>
@@ -5251,7 +4987,7 @@
         <v>159</v>
       </c>
       <c r="I107" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L107" t="s">
         <v>160</v>
@@ -5265,34 +5001,37 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="B108">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C108" t="s">
         <v>157</v>
       </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
       <c r="E108" t="s">
         <v>14</v>
       </c>
       <c r="F108" t="s">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c r="G108" s="1">
-        <v>43770</v>
+        <v>43556</v>
       </c>
       <c r="H108" t="s">
         <v>159</v>
       </c>
       <c r="I108" t="s">
-        <v>256</v>
+        <v>102</v>
+      </c>
+      <c r="J108" t="s">
+        <v>138</v>
       </c>
       <c r="L108" t="s">
         <v>160</v>
-      </c>
-      <c r="M108" t="s">
-        <v>267</v>
       </c>
       <c r="N108" t="s">
         <v>160</v>
@@ -5300,10 +5039,10 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B109">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C109" t="s">
         <v>157</v>
@@ -5321,7 +5060,7 @@
         <v>159</v>
       </c>
       <c r="I109" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L109" t="s">
         <v>160</v>
@@ -5335,10 +5074,10 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B110">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C110" t="s">
         <v>157</v>
@@ -5356,7 +5095,7 @@
         <v>159</v>
       </c>
       <c r="I110" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="L110" t="s">
         <v>160</v>
@@ -5370,10 +5109,10 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>212</v>
+        <v>295</v>
       </c>
       <c r="B111">
-        <v>36</v>
+        <v>1960</v>
       </c>
       <c r="C111" t="s">
         <v>157</v>
@@ -5382,33 +5121,27 @@
         <v>14</v>
       </c>
       <c r="F111" t="s">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="G111" s="1">
-        <v>43770</v>
+        <v>43344</v>
       </c>
       <c r="H111" t="s">
         <v>159</v>
       </c>
       <c r="I111" t="s">
-        <v>258</v>
-      </c>
-      <c r="L111" t="s">
-        <v>160</v>
-      </c>
-      <c r="M111" t="s">
-        <v>267</v>
-      </c>
-      <c r="N111" t="s">
-        <v>160</v>
+        <v>332</v>
+      </c>
+      <c r="J111" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B112">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C112" t="s">
         <v>157</v>
@@ -5426,7 +5159,7 @@
         <v>159</v>
       </c>
       <c r="I112" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="L112" t="s">
         <v>160</v>
@@ -5440,10 +5173,7 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>214</v>
-      </c>
-      <c r="B113">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="C113" t="s">
         <v>157</v>
@@ -5460,9 +5190,6 @@
       <c r="H113" t="s">
         <v>159</v>
       </c>
-      <c r="I113" t="s">
-        <v>260</v>
-      </c>
       <c r="L113" t="s">
         <v>160</v>
       </c>
@@ -5475,34 +5202,37 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="B114">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C114" t="s">
         <v>157</v>
       </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
       <c r="E114" t="s">
         <v>14</v>
       </c>
       <c r="F114" t="s">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c r="G114" s="1">
-        <v>43770</v>
+        <v>43556</v>
       </c>
       <c r="H114" t="s">
         <v>159</v>
       </c>
       <c r="I114" t="s">
-        <v>261</v>
+        <v>124</v>
+      </c>
+      <c r="J114" t="s">
+        <v>129</v>
       </c>
       <c r="L114" t="s">
         <v>160</v>
-      </c>
-      <c r="M114" t="s">
-        <v>267</v>
       </c>
       <c r="N114" t="s">
         <v>160</v>
@@ -5510,7 +5240,7 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B115">
         <v>44</v>
@@ -5531,7 +5261,7 @@
         <v>159</v>
       </c>
       <c r="I115" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="L115" t="s">
         <v>160</v>
@@ -5545,7 +5275,10 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>217</v>
+        <v>209</v>
+      </c>
+      <c r="B116">
+        <v>45</v>
       </c>
       <c r="C116" t="s">
         <v>157</v>
@@ -5562,6 +5295,9 @@
       <c r="H116" t="s">
         <v>159</v>
       </c>
+      <c r="I116" t="s">
+        <v>256</v>
+      </c>
       <c r="L116" t="s">
         <v>160</v>
       </c>
@@ -5574,10 +5310,10 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>218</v>
+        <v>296</v>
       </c>
       <c r="B117">
-        <v>39</v>
+        <v>1974</v>
       </c>
       <c r="C117" t="s">
         <v>157</v>
@@ -5586,33 +5322,24 @@
         <v>14</v>
       </c>
       <c r="F117" t="s">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="G117" s="1">
-        <v>43770</v>
+        <v>43344</v>
       </c>
       <c r="H117" t="s">
         <v>159</v>
       </c>
       <c r="I117" t="s">
-        <v>263</v>
-      </c>
-      <c r="L117" t="s">
-        <v>160</v>
-      </c>
-      <c r="M117" t="s">
-        <v>267</v>
-      </c>
-      <c r="N117" t="s">
-        <v>160</v>
+        <v>315</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B118">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C118" t="s">
         <v>157</v>
@@ -5630,7 +5357,7 @@
         <v>159</v>
       </c>
       <c r="I118" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L118" t="s">
         <v>160</v>
@@ -5644,10 +5371,10 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="B119">
-        <v>51</v>
+        <v>1988</v>
       </c>
       <c r="C119" t="s">
         <v>157</v>
@@ -5656,30 +5383,27 @@
         <v>14</v>
       </c>
       <c r="F119" t="s">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="G119" s="1">
-        <v>43770</v>
+        <v>43344</v>
       </c>
       <c r="H119" t="s">
         <v>159</v>
       </c>
       <c r="I119" t="s">
-        <v>265</v>
-      </c>
-      <c r="L119" t="s">
-        <v>160</v>
-      </c>
-      <c r="M119" t="s">
-        <v>267</v>
-      </c>
-      <c r="N119" t="s">
-        <v>160</v>
+        <v>333</v>
+      </c>
+      <c r="J119" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>221</v>
+        <v>211</v>
+      </c>
+      <c r="B120">
+        <v>34</v>
       </c>
       <c r="C120" t="s">
         <v>157</v>
@@ -5696,6 +5420,9 @@
       <c r="H120" t="s">
         <v>159</v>
       </c>
+      <c r="I120" t="s">
+        <v>237</v>
+      </c>
       <c r="L120" t="s">
         <v>160</v>
       </c>
@@ -5708,39 +5435,48 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>269</v>
+        <v>46</v>
       </c>
       <c r="B121">
-        <v>1977</v>
+        <v>29</v>
       </c>
       <c r="C121" t="s">
         <v>157</v>
       </c>
+      <c r="D121">
+        <v>7</v>
+      </c>
       <c r="E121" t="s">
         <v>14</v>
       </c>
       <c r="F121" t="s">
-        <v>354</v>
+        <v>15</v>
       </c>
       <c r="G121" s="1">
-        <v>43344</v>
+        <v>43556</v>
       </c>
       <c r="H121" t="s">
         <v>159</v>
       </c>
       <c r="I121" t="s">
-        <v>306</v>
+        <v>103</v>
       </c>
       <c r="J121" t="s">
-        <v>343</v>
+        <v>139</v>
+      </c>
+      <c r="L121" t="s">
+        <v>160</v>
+      </c>
+      <c r="N121" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>270</v>
+        <v>212</v>
       </c>
       <c r="B122">
-        <v>1988</v>
+        <v>36</v>
       </c>
       <c r="C122" t="s">
         <v>157</v>
@@ -5749,50 +5485,71 @@
         <v>14</v>
       </c>
       <c r="F122" t="s">
-        <v>354</v>
+        <v>266</v>
       </c>
       <c r="G122" s="1">
-        <v>43344</v>
+        <v>43770</v>
       </c>
       <c r="H122" t="s">
         <v>159</v>
       </c>
       <c r="I122" t="s">
-        <v>307</v>
+        <v>258</v>
+      </c>
+      <c r="L122" t="s">
+        <v>160</v>
+      </c>
+      <c r="M122" t="s">
+        <v>267</v>
+      </c>
+      <c r="N122" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>271</v>
+        <v>47</v>
       </c>
       <c r="B123">
-        <v>1978</v>
+        <v>28</v>
       </c>
       <c r="C123" t="s">
         <v>157</v>
       </c>
+      <c r="D123">
+        <v>8</v>
+      </c>
       <c r="E123" t="s">
         <v>14</v>
       </c>
       <c r="F123" t="s">
-        <v>354</v>
+        <v>15</v>
       </c>
       <c r="G123" s="1">
-        <v>43344</v>
+        <v>43556</v>
       </c>
       <c r="H123" t="s">
         <v>159</v>
       </c>
       <c r="I123" t="s">
-        <v>308</v>
+        <v>104</v>
+      </c>
+      <c r="J123" t="s">
+        <v>129</v>
+      </c>
+      <c r="L123" t="s">
+        <v>160</v>
+      </c>
+      <c r="N123" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>272</v>
+        <v>213</v>
       </c>
       <c r="B124">
-        <v>1977</v>
+        <v>29</v>
       </c>
       <c r="C124" t="s">
         <v>157</v>
@@ -5801,24 +5558,33 @@
         <v>14</v>
       </c>
       <c r="F124" t="s">
-        <v>354</v>
+        <v>266</v>
       </c>
       <c r="G124" s="1">
-        <v>43344</v>
+        <v>43770</v>
       </c>
       <c r="H124" t="s">
         <v>159</v>
       </c>
       <c r="I124" t="s">
-        <v>309</v>
+        <v>259</v>
+      </c>
+      <c r="L124" t="s">
+        <v>160</v>
+      </c>
+      <c r="M124" t="s">
+        <v>267</v>
+      </c>
+      <c r="N124" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>273</v>
+        <v>48</v>
       </c>
       <c r="B125">
-        <v>1976</v>
+        <v>61</v>
       </c>
       <c r="C125" t="s">
         <v>157</v>
@@ -5827,24 +5593,33 @@
         <v>14</v>
       </c>
       <c r="F125" t="s">
-        <v>354</v>
+        <v>15</v>
       </c>
       <c r="G125" s="1">
-        <v>43344</v>
+        <v>43556</v>
       </c>
       <c r="H125" t="s">
         <v>159</v>
       </c>
       <c r="I125" t="s">
-        <v>310</v>
+        <v>105</v>
+      </c>
+      <c r="J125" t="s">
+        <v>129</v>
+      </c>
+      <c r="L125" t="s">
+        <v>160</v>
+      </c>
+      <c r="N125" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>274</v>
+        <v>214</v>
       </c>
       <c r="B126">
-        <v>1970</v>
+        <v>42</v>
       </c>
       <c r="C126" t="s">
         <v>157</v>
@@ -5853,76 +5628,109 @@
         <v>14</v>
       </c>
       <c r="F126" t="s">
-        <v>354</v>
+        <v>266</v>
       </c>
       <c r="G126" s="1">
-        <v>43344</v>
+        <v>43770</v>
       </c>
       <c r="H126" t="s">
         <v>159</v>
       </c>
       <c r="I126" t="s">
-        <v>311</v>
+        <v>260</v>
+      </c>
+      <c r="L126" t="s">
+        <v>160</v>
+      </c>
+      <c r="M126" t="s">
+        <v>267</v>
+      </c>
+      <c r="N126" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>275</v>
+        <v>49</v>
       </c>
       <c r="B127">
-        <v>1975</v>
+        <v>37</v>
       </c>
       <c r="C127" t="s">
         <v>157</v>
       </c>
+      <c r="D127" t="s">
+        <v>158</v>
+      </c>
       <c r="E127" t="s">
         <v>14</v>
       </c>
       <c r="F127" t="s">
-        <v>354</v>
+        <v>15</v>
       </c>
       <c r="G127" s="1">
-        <v>43344</v>
+        <v>43556</v>
       </c>
       <c r="H127" t="s">
         <v>159</v>
       </c>
       <c r="I127" t="s">
-        <v>312</v>
+        <v>106</v>
+      </c>
+      <c r="J127" t="s">
+        <v>129</v>
+      </c>
+      <c r="L127" t="s">
+        <v>160</v>
+      </c>
+      <c r="N127" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>276</v>
+        <v>50</v>
       </c>
       <c r="B128">
-        <v>1984</v>
+        <v>48</v>
       </c>
       <c r="C128" t="s">
         <v>157</v>
       </c>
+      <c r="D128">
+        <v>7</v>
+      </c>
       <c r="E128" t="s">
         <v>14</v>
       </c>
       <c r="F128" t="s">
-        <v>354</v>
+        <v>15</v>
       </c>
       <c r="G128" s="1">
-        <v>43344</v>
+        <v>43556</v>
       </c>
       <c r="H128" t="s">
         <v>159</v>
       </c>
       <c r="I128" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="J128" t="s">
+        <v>129</v>
+      </c>
+      <c r="L128" t="s">
+        <v>160</v>
+      </c>
+      <c r="N128" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="B129">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="C129" t="s">
         <v>157</v>
@@ -5931,7 +5739,7 @@
         <v>14</v>
       </c>
       <c r="F129" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G129" s="1">
         <v>43344</v>
@@ -5940,15 +5748,15 @@
         <v>159</v>
       </c>
       <c r="I129" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="B130">
-        <v>1986</v>
+        <v>1992</v>
       </c>
       <c r="C130" t="s">
         <v>157</v>
@@ -5957,7 +5765,7 @@
         <v>14</v>
       </c>
       <c r="F130" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G130" s="1">
         <v>43344</v>
@@ -5966,15 +5774,18 @@
         <v>159</v>
       </c>
       <c r="I130" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+      <c r="J130" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="B131">
-        <v>1970</v>
+        <v>1988</v>
       </c>
       <c r="C131" t="s">
         <v>157</v>
@@ -5983,7 +5794,7 @@
         <v>14</v>
       </c>
       <c r="F131" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G131" s="1">
         <v>43344</v>
@@ -5992,44 +5803,56 @@
         <v>159</v>
       </c>
       <c r="I131" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="J131" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>280</v>
+        <v>51</v>
       </c>
       <c r="B132">
-        <v>1971</v>
+        <v>34</v>
       </c>
       <c r="C132" t="s">
         <v>157</v>
       </c>
+      <c r="D132">
+        <v>12</v>
+      </c>
       <c r="E132" t="s">
         <v>14</v>
       </c>
       <c r="F132" t="s">
-        <v>354</v>
+        <v>15</v>
       </c>
       <c r="G132" s="1">
-        <v>43344</v>
+        <v>43556</v>
       </c>
       <c r="H132" t="s">
         <v>159</v>
       </c>
       <c r="I132" t="s">
-        <v>317</v>
+        <v>108</v>
       </c>
       <c r="J132" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="L132" t="s">
+        <v>160</v>
+      </c>
+      <c r="N132" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="B133">
-        <v>1976</v>
+        <v>1986</v>
       </c>
       <c r="C133" t="s">
         <v>157</v>
@@ -6038,7 +5861,7 @@
         <v>14</v>
       </c>
       <c r="F133" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G133" s="1">
         <v>43344</v>
@@ -6047,44 +5870,53 @@
         <v>159</v>
       </c>
       <c r="I133" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>282</v>
+        <v>70</v>
       </c>
       <c r="B134">
-        <v>1980</v>
+        <v>34</v>
       </c>
       <c r="C134" t="s">
         <v>157</v>
       </c>
+      <c r="D134">
+        <v>10</v>
+      </c>
       <c r="E134" t="s">
         <v>14</v>
       </c>
       <c r="F134" t="s">
-        <v>354</v>
+        <v>15</v>
       </c>
       <c r="G134" s="1">
-        <v>43344</v>
+        <v>43556</v>
       </c>
       <c r="H134" t="s">
         <v>159</v>
       </c>
       <c r="I134" t="s">
-        <v>319</v>
+        <v>125</v>
       </c>
       <c r="J134" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="L134" t="s">
+        <v>160</v>
+      </c>
+      <c r="N134" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="B135">
-        <v>1975</v>
+        <v>1956</v>
       </c>
       <c r="C135" t="s">
         <v>157</v>
@@ -6093,7 +5925,7 @@
         <v>14</v>
       </c>
       <c r="F135" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G135" s="1">
         <v>43344</v>
@@ -6102,67 +5934,91 @@
         <v>159</v>
       </c>
       <c r="I135" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>284</v>
+        <v>52</v>
       </c>
       <c r="B136">
-        <v>1970</v>
+        <v>34</v>
       </c>
       <c r="C136" t="s">
         <v>157</v>
       </c>
+      <c r="D136">
+        <v>7</v>
+      </c>
       <c r="E136" t="s">
         <v>14</v>
       </c>
       <c r="F136" t="s">
-        <v>354</v>
+        <v>15</v>
       </c>
       <c r="G136" s="1">
-        <v>43344</v>
+        <v>43556</v>
       </c>
       <c r="H136" t="s">
         <v>159</v>
       </c>
       <c r="I136" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="J136" t="s">
+        <v>141</v>
+      </c>
+      <c r="L136" t="s">
+        <v>160</v>
+      </c>
+      <c r="N136" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>285</v>
+        <v>53</v>
       </c>
       <c r="B137">
-        <v>1990</v>
+        <v>39</v>
       </c>
       <c r="C137" t="s">
         <v>157</v>
       </c>
+      <c r="D137">
+        <v>4</v>
+      </c>
       <c r="E137" t="s">
         <v>14</v>
       </c>
       <c r="F137" t="s">
-        <v>354</v>
+        <v>15</v>
       </c>
       <c r="G137" s="1">
-        <v>43344</v>
+        <v>43556</v>
       </c>
       <c r="H137" t="s">
         <v>159</v>
       </c>
       <c r="I137" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="J137" t="s">
+        <v>129</v>
+      </c>
+      <c r="L137" t="s">
+        <v>160</v>
+      </c>
+      <c r="N137" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="B138">
-        <v>1991</v>
+        <v>1983</v>
       </c>
       <c r="C138" t="s">
         <v>157</v>
@@ -6171,7 +6027,7 @@
         <v>14</v>
       </c>
       <c r="F138" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G138" s="1">
         <v>43344</v>
@@ -6180,47 +6036,53 @@
         <v>159</v>
       </c>
       <c r="I138" t="s">
-        <v>323</v>
-      </c>
-      <c r="J138" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>287</v>
+        <v>71</v>
       </c>
       <c r="B139">
-        <v>1974</v>
+        <v>55</v>
       </c>
       <c r="C139" t="s">
         <v>157</v>
       </c>
+      <c r="D139">
+        <v>3</v>
+      </c>
       <c r="E139" t="s">
         <v>14</v>
       </c>
       <c r="F139" t="s">
-        <v>354</v>
+        <v>15</v>
       </c>
       <c r="G139" s="1">
-        <v>43344</v>
+        <v>43556</v>
       </c>
       <c r="H139" t="s">
         <v>159</v>
       </c>
       <c r="I139" t="s">
-        <v>324</v>
+        <v>126</v>
       </c>
       <c r="J139" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="L139" t="s">
+        <v>160</v>
+      </c>
+      <c r="N139" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="B140">
-        <v>1976</v>
+        <v>43</v>
       </c>
       <c r="C140" t="s">
         <v>157</v>
@@ -6229,24 +6091,33 @@
         <v>14</v>
       </c>
       <c r="F140" t="s">
-        <v>354</v>
+        <v>266</v>
       </c>
       <c r="G140" s="1">
-        <v>43344</v>
+        <v>43770</v>
       </c>
       <c r="H140" t="s">
         <v>159</v>
       </c>
       <c r="I140" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="L140" t="s">
+        <v>160</v>
+      </c>
+      <c r="M140" t="s">
+        <v>267</v>
+      </c>
+      <c r="N140" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>288</v>
+        <v>72</v>
       </c>
       <c r="B141">
-        <v>1976</v>
+        <v>59</v>
       </c>
       <c r="C141" t="s">
         <v>157</v>
@@ -6255,24 +6126,33 @@
         <v>14</v>
       </c>
       <c r="F141" t="s">
-        <v>354</v>
+        <v>15</v>
       </c>
       <c r="G141" s="1">
-        <v>43344</v>
+        <v>43556</v>
       </c>
       <c r="H141" t="s">
         <v>159</v>
       </c>
       <c r="I141" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="J141" t="s">
+        <v>155</v>
+      </c>
+      <c r="L141" t="s">
+        <v>160</v>
+      </c>
+      <c r="N141" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>289</v>
+        <v>216</v>
       </c>
       <c r="B142">
-        <v>1970</v>
+        <v>44</v>
       </c>
       <c r="C142" t="s">
         <v>157</v>
@@ -6281,27 +6161,30 @@
         <v>14</v>
       </c>
       <c r="F142" t="s">
-        <v>354</v>
+        <v>266</v>
       </c>
       <c r="G142" s="1">
-        <v>43344</v>
+        <v>43770</v>
       </c>
       <c r="H142" t="s">
         <v>159</v>
       </c>
       <c r="I142" t="s">
-        <v>327</v>
-      </c>
-      <c r="J142" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="L142" t="s">
+        <v>160</v>
+      </c>
+      <c r="M142" t="s">
+        <v>267</v>
+      </c>
+      <c r="N142" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>290</v>
-      </c>
-      <c r="B143">
-        <v>1977</v>
+        <v>217</v>
       </c>
       <c r="C143" t="s">
         <v>157</v>
@@ -6310,24 +6193,30 @@
         <v>14</v>
       </c>
       <c r="F143" t="s">
-        <v>354</v>
+        <v>266</v>
       </c>
       <c r="G143" s="1">
-        <v>43344</v>
+        <v>43770</v>
       </c>
       <c r="H143" t="s">
         <v>159</v>
       </c>
-      <c r="I143" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L143" t="s">
+        <v>160</v>
+      </c>
+      <c r="M143" t="s">
+        <v>267</v>
+      </c>
+      <c r="N143" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>291</v>
+        <v>218</v>
       </c>
       <c r="B144">
-        <v>1987</v>
+        <v>39</v>
       </c>
       <c r="C144" t="s">
         <v>157</v>
@@ -6336,50 +6225,71 @@
         <v>14</v>
       </c>
       <c r="F144" t="s">
-        <v>354</v>
+        <v>266</v>
       </c>
       <c r="G144" s="1">
-        <v>43344</v>
+        <v>43770</v>
       </c>
       <c r="H144" t="s">
         <v>159</v>
       </c>
       <c r="I144" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="L144" t="s">
+        <v>160</v>
+      </c>
+      <c r="M144" t="s">
+        <v>267</v>
+      </c>
+      <c r="N144" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>292</v>
+        <v>54</v>
       </c>
       <c r="B145">
-        <v>1970</v>
+        <v>51</v>
       </c>
       <c r="C145" t="s">
         <v>157</v>
       </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
       <c r="E145" t="s">
         <v>14</v>
       </c>
       <c r="F145" t="s">
-        <v>354</v>
+        <v>15</v>
       </c>
       <c r="G145" s="1">
-        <v>43344</v>
+        <v>43556</v>
       </c>
       <c r="H145" t="s">
         <v>159</v>
       </c>
       <c r="I145" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="J145" t="s">
+        <v>142</v>
+      </c>
+      <c r="L145" t="s">
+        <v>160</v>
+      </c>
+      <c r="N145" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="B146">
-        <v>1988</v>
+        <v>39</v>
       </c>
       <c r="C146" t="s">
         <v>157</v>
@@ -6388,27 +6298,33 @@
         <v>14</v>
       </c>
       <c r="F146" t="s">
-        <v>354</v>
+        <v>266</v>
       </c>
       <c r="G146" s="1">
-        <v>43344</v>
+        <v>43770</v>
       </c>
       <c r="H146" t="s">
         <v>159</v>
       </c>
       <c r="I146" t="s">
-        <v>331</v>
-      </c>
-      <c r="J146" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="L146" t="s">
+        <v>160</v>
+      </c>
+      <c r="M146" t="s">
+        <v>267</v>
+      </c>
+      <c r="N146" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="B147">
-        <v>1986</v>
+        <v>1962</v>
       </c>
       <c r="C147" t="s">
         <v>157</v>
@@ -6417,7 +6333,7 @@
         <v>14</v>
       </c>
       <c r="F147" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G147" s="1">
         <v>43344</v>
@@ -6426,102 +6342,129 @@
         <v>159</v>
       </c>
       <c r="I147" t="s">
-        <v>332</v>
-      </c>
-      <c r="J147" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>295</v>
+        <v>73</v>
       </c>
       <c r="B148">
-        <v>1960</v>
+        <v>37</v>
       </c>
       <c r="C148" t="s">
         <v>157</v>
       </c>
+      <c r="D148">
+        <v>6</v>
+      </c>
       <c r="E148" t="s">
         <v>14</v>
       </c>
       <c r="F148" t="s">
-        <v>354</v>
+        <v>15</v>
       </c>
       <c r="G148" s="1">
-        <v>43344</v>
+        <v>43556</v>
       </c>
       <c r="H148" t="s">
         <v>159</v>
       </c>
       <c r="I148" t="s">
-        <v>333</v>
+        <v>128</v>
       </c>
       <c r="J148" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="L148" t="s">
+        <v>160</v>
+      </c>
+      <c r="N148" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="B149">
-        <v>1974</v>
+        <v>31</v>
       </c>
       <c r="C149" t="s">
         <v>157</v>
       </c>
+      <c r="D149">
+        <v>9</v>
+      </c>
       <c r="E149" t="s">
         <v>14</v>
       </c>
       <c r="F149" t="s">
-        <v>354</v>
+        <v>15</v>
       </c>
       <c r="G149" s="1">
-        <v>43344</v>
+        <v>43556</v>
       </c>
       <c r="H149" t="s">
         <v>159</v>
       </c>
       <c r="I149" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="J149" t="s">
+        <v>129</v>
+      </c>
+      <c r="L149" t="s">
+        <v>160</v>
+      </c>
+      <c r="N149" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>297</v>
+        <v>56</v>
       </c>
       <c r="B150">
-        <v>1988</v>
+        <v>57</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
       </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
       <c r="E150" t="s">
         <v>14</v>
       </c>
       <c r="F150" t="s">
-        <v>354</v>
+        <v>15</v>
       </c>
       <c r="G150" s="1">
-        <v>43344</v>
+        <v>43556</v>
       </c>
       <c r="H150" t="s">
         <v>159</v>
       </c>
       <c r="I150" t="s">
-        <v>334</v>
+        <v>82</v>
       </c>
       <c r="J150" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="L150" t="s">
+        <v>160</v>
+      </c>
+      <c r="N150" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="B151">
-        <v>1992</v>
+        <v>51</v>
       </c>
       <c r="C151" t="s">
         <v>157</v>
@@ -6530,27 +6473,30 @@
         <v>14</v>
       </c>
       <c r="F151" t="s">
-        <v>354</v>
+        <v>266</v>
       </c>
       <c r="G151" s="1">
-        <v>43344</v>
+        <v>43770</v>
       </c>
       <c r="H151" t="s">
         <v>159</v>
       </c>
       <c r="I151" t="s">
-        <v>335</v>
-      </c>
-      <c r="J151" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="L151" t="s">
+        <v>160</v>
+      </c>
+      <c r="M151" t="s">
+        <v>267</v>
+      </c>
+      <c r="N151" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>299</v>
-      </c>
-      <c r="B152">
-        <v>1974</v>
+        <v>221</v>
       </c>
       <c r="C152" t="s">
         <v>157</v>
@@ -6559,24 +6505,30 @@
         <v>14</v>
       </c>
       <c r="F152" t="s">
-        <v>354</v>
+        <v>266</v>
       </c>
       <c r="G152" s="1">
-        <v>43344</v>
+        <v>43770</v>
       </c>
       <c r="H152" t="s">
         <v>159</v>
       </c>
-      <c r="I152" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L152" t="s">
+        <v>160</v>
+      </c>
+      <c r="M152" t="s">
+        <v>267</v>
+      </c>
+      <c r="N152" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B153">
-        <v>1988</v>
+        <v>1972</v>
       </c>
       <c r="C153" t="s">
         <v>157</v>
@@ -6585,7 +6537,7 @@
         <v>14</v>
       </c>
       <c r="F153" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G153" s="1">
         <v>43344</v>
@@ -6594,145 +6546,164 @@
         <v>159</v>
       </c>
       <c r="I153" t="s">
-        <v>337</v>
-      </c>
-      <c r="J153" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>301</v>
+        <v>57</v>
       </c>
       <c r="B154">
-        <v>1986</v>
+        <v>26</v>
       </c>
       <c r="C154" t="s">
         <v>157</v>
       </c>
+      <c r="D154">
+        <v>12</v>
+      </c>
       <c r="E154" t="s">
         <v>14</v>
       </c>
       <c r="F154" t="s">
-        <v>354</v>
+        <v>15</v>
       </c>
       <c r="G154" s="1">
-        <v>43344</v>
+        <v>43556</v>
       </c>
       <c r="H154" t="s">
         <v>159</v>
       </c>
       <c r="I154" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="J154" t="s">
+        <v>143</v>
+      </c>
+      <c r="L154" t="s">
+        <v>160</v>
+      </c>
+      <c r="N154" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>302</v>
+        <v>58</v>
       </c>
       <c r="B155">
-        <v>1956</v>
+        <v>22</v>
       </c>
       <c r="C155" t="s">
         <v>157</v>
       </c>
+      <c r="D155">
+        <v>10</v>
+      </c>
       <c r="E155" t="s">
         <v>14</v>
       </c>
       <c r="F155" t="s">
-        <v>354</v>
+        <v>15</v>
       </c>
       <c r="G155" s="1">
-        <v>43344</v>
+        <v>43556</v>
       </c>
       <c r="H155" t="s">
         <v>159</v>
       </c>
       <c r="I155" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="J155" t="s">
+        <v>144</v>
+      </c>
+      <c r="L155" t="s">
+        <v>160</v>
+      </c>
+      <c r="N155" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>303</v>
+        <v>59</v>
       </c>
       <c r="B156">
-        <v>1983</v>
+        <v>52</v>
       </c>
       <c r="C156" t="s">
         <v>157</v>
       </c>
+      <c r="D156">
+        <v>4</v>
+      </c>
       <c r="E156" t="s">
         <v>14</v>
       </c>
       <c r="F156" t="s">
-        <v>354</v>
+        <v>15</v>
       </c>
       <c r="G156" s="1">
-        <v>43344</v>
+        <v>43556</v>
       </c>
       <c r="H156" t="s">
         <v>159</v>
       </c>
       <c r="I156" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="J156" t="s">
+        <v>129</v>
+      </c>
+      <c r="L156" t="s">
+        <v>160</v>
+      </c>
+      <c r="N156" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>304</v>
+        <v>60</v>
       </c>
       <c r="B157">
-        <v>1962</v>
+        <v>42</v>
       </c>
       <c r="C157" t="s">
         <v>157</v>
       </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
       <c r="E157" t="s">
         <v>14</v>
       </c>
       <c r="F157" t="s">
-        <v>354</v>
+        <v>15</v>
       </c>
       <c r="G157" s="1">
-        <v>43344</v>
+        <v>43556</v>
       </c>
       <c r="H157" t="s">
         <v>159</v>
       </c>
       <c r="I157" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>305</v>
-      </c>
-      <c r="B158">
-        <v>1972</v>
-      </c>
-      <c r="C158" t="s">
-        <v>157</v>
-      </c>
-      <c r="E158" t="s">
-        <v>14</v>
-      </c>
-      <c r="F158" t="s">
-        <v>354</v>
-      </c>
-      <c r="G158" s="1">
-        <v>43344</v>
-      </c>
-      <c r="H158" t="s">
-        <v>159</v>
-      </c>
-      <c r="I158" t="s">
-        <v>342</v>
+        <v>97</v>
+      </c>
+      <c r="J157" t="s">
+        <v>129</v>
+      </c>
+      <c r="L157" t="s">
+        <v>160</v>
+      </c>
+      <c r="N157" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:N1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N59">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N158">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
